--- a/BOMs/India BOM.xlsx
+++ b/BOMs/India BOM.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22810"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="14616" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>Item</t>
   </si>
@@ -60,15 +60,6 @@
     <t>http://www.amazon.com/VELCRO-U-S-A-Sticky-Black-VEK91137/dp/B000GRBEK2/ref=sr_1_13?ie=UTF8&amp;qid=1405473316&amp;sr=8-13&amp;keywords=velcro+sticky+back+hook</t>
   </si>
   <si>
-    <t>M1.4x4 Screw </t>
-  </si>
-  <si>
-    <t>http://www.amazon.com/1000Pcs-M1-4x4-Plated-Electronic-Phillips/dp/B00HB1TTJ4/ref=sr_1_11?ie=UTF8&amp;qid=1405472514&amp;sr=8-11&amp;keywords=screw+m1.4</t>
-  </si>
-  <si>
-    <t>M3 Screw</t>
-  </si>
-  <si>
     <t>Equipment</t>
   </si>
   <si>
@@ -159,7 +150,10 @@
     <t>Rs. 1,299</t>
   </si>
   <si>
-    <t>http://www.starhardware.co.in/index.php/screws/stainless-steel-phillips-pan-head-sems-screw-m3.html</t>
+    <t>http://www.amazon.com/SS12D00G3-Position-Panel-Vertical-Switch/dp/B007QAJUUS/ref=sr_1_7?s=industrial&amp;ie=UTF8&amp;qid=1406155714&amp;sr=1-7&amp;keywords=slide+switch</t>
+  </si>
+  <si>
+    <t>Slide switch</t>
   </si>
 </sst>
 </file>
@@ -266,7 +260,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -280,9 +274,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -294,6 +285,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -619,19 +615,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.1640625" customWidth="1"/>
+    <col min="1" max="1" width="37.19921875" customWidth="1"/>
     <col min="3" max="3" width="173" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -642,10 +638,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -653,27 +649,27 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B3" s="6">
         <v>1</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>4</v>
       </c>
@@ -681,13 +677,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
@@ -695,13 +691,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>6</v>
       </c>
@@ -709,13 +705,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>7</v>
       </c>
@@ -723,13 +719,13 @@
         <v>3</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>8</v>
       </c>
@@ -737,13 +733,13 @@
         <v>1</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>9</v>
       </c>
@@ -755,7 +751,7 @@
       </c>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>11</v>
       </c>
@@ -767,108 +763,96 @@
       </c>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="6">
+        <v>1</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="6">
+        <v>1</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D14" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="6">
-        <v>1</v>
-      </c>
-      <c r="C11" s="7" t="s">
+      <c r="B16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="8" t="s">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="6">
-        <v>1</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="6">
-        <v>1</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="5"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="D15" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1" t="s">
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="1" t="s">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
         <v>18</v>
       </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
         <v>20</v>
       </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
         <v>22</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/BOMs/India BOM.xlsx
+++ b/BOMs/India BOM.xlsx
@@ -617,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -662,7 +662,7 @@
       <c r="B3" s="6">
         <v>1</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -860,6 +860,7 @@
     <hyperlink ref="C5" r:id="rId1"/>
     <hyperlink ref="C8" r:id="rId2"/>
     <hyperlink ref="C7" r:id="rId3"/>
+    <hyperlink ref="C3" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
